--- a/downloaded_files/MDPS217_Tutorial-35644.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35644.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Tarek monir Yousef Elmenofy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد عاطف مرعى عبد النعيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
   </x:si>
   <x:si>
     <x:t>1240016</x:t>
@@ -566,7 +557,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -866,7 +857,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1085,7 +1076,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.0388648495</x:v>
+        <x:v>45907.6665537847</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1117,7 +1108,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6665537847</x:v>
+        <x:v>45907.6651128125</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1149,7 +1140,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651128125</x:v>
+        <x:v>45907.6657842245</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1181,7 +1172,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6657842245</x:v>
+        <x:v>45907.6662506134</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1213,7 +1204,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6662506134</x:v>
+        <x:v>45907.6663570255</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1245,7 +1236,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6663570255</x:v>
+        <x:v>45912.0386998843</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1277,7 +1268,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.0386998843</x:v>
+        <x:v>45907.665562419</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1309,7 +1300,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.665562419</x:v>
+        <x:v>45907.6652035532</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1341,7 +1332,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6652035532</x:v>
+        <x:v>45907.6658058218</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1373,7 +1364,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6658058218</x:v>
+        <x:v>45907.6650951042</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1405,7 +1396,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6650951042</x:v>
+        <x:v>45907.6651674769</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1437,7 +1428,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651674769</x:v>
+        <x:v>45914.4389700579</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1469,7 +1460,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1501,7 +1492,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6669303241</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1533,7 +1524,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6669303241</x:v>
+        <x:v>45907.414719213</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1565,7 +1556,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.414719213</x:v>
+        <x:v>45907.6661318287</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1597,7 +1588,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6661318287</x:v>
+        <x:v>45912.0384657407</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1629,7 +1620,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.0384657407</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1661,7 +1652,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45907.6651002662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1693,7 +1684,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651002662</x:v>
+        <x:v>45909.4194131134</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4194131134</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45912.0374738426</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.0374738426</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6650885764</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1978,10 +1969,10 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6650885764</x:v>
+        <x:v>45912.0386217593</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2004,16 +1995,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.0386217593</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2045,7 +2036,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45912.0385012731</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2077,7 +2068,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.0385012731</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2109,7 +2100,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2141,7 +2132,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2173,7 +2164,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2205,7 +2196,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45916.6151800579</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2237,7 +2228,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45916.6151800579</x:v>
+        <x:v>45912.0387656597</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2269,7 +2260,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45912.0387656597</x:v>
+        <x:v>45912.0371449884</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2301,7 +2292,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45912.0371449884</x:v>
+        <x:v>45907.6658238773</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2333,7 +2324,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6658238773</x:v>
+        <x:v>45907.6654652431</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2365,7 +2356,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6654652431</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2397,7 +2388,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2414,38 +2405,6 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:20">
-      <x:c r="A48" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="E48" s="3">
-        <x:v>45907.6655123843</x:v>
-      </x:c>
-      <x:c r="F48" s="2" t="s"/>
-      <x:c r="G48" s="2" t="s"/>
-      <x:c r="H48" s="2" t="s"/>
-      <x:c r="I48" s="2" t="s"/>
-      <x:c r="J48" s="2" t="s"/>
-      <x:c r="K48" s="2" t="s"/>
-      <x:c r="L48" s="2" t="s"/>
-      <x:c r="M48" s="2" t="s"/>
-      <x:c r="N48" s="2" t="s"/>
-      <x:c r="O48" s="2" t="s"/>
-      <x:c r="P48" s="2" t="s"/>
-      <x:c r="Q48" s="2" t="s"/>
-      <x:c r="R48" s="2" t="s"/>
-      <x:c r="S48" s="2" t="s"/>
-      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35644.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35644.xlsx
@@ -138,7 +138,7 @@
     <x:t>جمانه محمد جلال كامل محمد توفيق</x:t>
   </x:si>
   <x:si>
-    <x:t>Jumana mohamed galal kamel</x:t>
+    <x:t>Jumana Mohammed Jalal Kamel Mohammed Tawfiq</x:t>
   </x:si>
   <x:si>
     <x:t>1240294</x:t>

--- a/downloaded_files/MDPS217_Tutorial-35644.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35644.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Tarek monir Yousef Elmenofy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد صلاح عبد الواحد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed salah Abdel wahed Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240016</x:t>
@@ -557,7 +566,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -857,7 +866,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1076,7 +1085,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6665537847</x:v>
+        <x:v>45923.7874106481</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1108,7 +1117,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6651128125</x:v>
+        <x:v>45907.6665537847</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1140,7 +1149,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6657842245</x:v>
+        <x:v>45907.6651128125</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1172,7 +1181,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6662506134</x:v>
+        <x:v>45907.6657842245</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1204,7 +1213,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6663570255</x:v>
+        <x:v>45907.6662506134</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1236,7 +1245,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.0386998843</x:v>
+        <x:v>45907.6663570255</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1268,7 +1277,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.665562419</x:v>
+        <x:v>45912.0386998843</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1300,7 +1309,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6652035532</x:v>
+        <x:v>45907.665562419</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1332,7 +1341,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6658058218</x:v>
+        <x:v>45907.6652035532</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1364,7 +1373,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6650951042</x:v>
+        <x:v>45907.6658058218</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1396,7 +1405,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651674769</x:v>
+        <x:v>45907.6650951042</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1428,7 +1437,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45907.6651674769</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1460,7 +1469,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45914.4389700579</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6669303241</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.414719213</x:v>
+        <x:v>45907.6669303241</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6661318287</x:v>
+        <x:v>45907.414719213</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.0384657407</x:v>
+        <x:v>45907.6661318287</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45912.0384657407</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6651002662</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4194131134</x:v>
+        <x:v>45907.6651002662</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45909.4194131134</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.0374738426</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45912.0374738426</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6650885764</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1969,10 +1978,10 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.0386217593</x:v>
+        <x:v>45907.6650885764</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1995,16 +2004,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45912.0386217593</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2036,7 +2045,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.0385012731</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2068,7 +2077,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45912.0385012731</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2100,7 +2109,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2132,7 +2141,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2164,7 +2173,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2196,7 +2205,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45916.6151800579</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2228,7 +2237,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.0387656597</x:v>
+        <x:v>45916.6151800579</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2260,7 +2269,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45912.0371449884</x:v>
+        <x:v>45912.0387656597</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2292,7 +2301,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6658238773</x:v>
+        <x:v>45912.0371449884</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2324,7 +2333,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6654652431</x:v>
+        <x:v>45907.6658238773</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2356,7 +2365,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6654652431</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2388,7 +2397,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6655123843</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2405,6 +2414,38 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45907.6655123843</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35644.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35644.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,6 +87,15 @@
     <x:t>Ahmed mohamed aly younes omar</x:t>
   </x:si>
   <x:si>
+    <x:t>4230141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود فريد على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mahmoud Fared Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240287</x:t>
   </x:si>
   <x:si>
@@ -303,15 +312,6 @@
     <x:t>Mohamed Ahmed Mohamed Sayed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240259</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد السيد محمد هارون</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOHAMED ELSAYED MOHAMED HAROUN</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240260</x:t>
   </x:si>
   <x:si>
@@ -352,15 +352,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Tamer Mohammed Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240366</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود حماده حليم صالح الحوت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Hamada Halim Saleh Elhout</x:t>
   </x:si>
   <x:si>
     <x:t>1200264</x:t>
@@ -566,7 +557,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -866,7 +857,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1149,7 +1140,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651128125</x:v>
+        <x:v>45927.6520380787</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1181,7 +1172,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6657842245</x:v>
+        <x:v>45907.6651128125</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1213,7 +1204,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6662506134</x:v>
+        <x:v>45907.6657842245</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1245,7 +1236,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6663570255</x:v>
+        <x:v>45907.6662506134</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1277,7 +1268,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.0386998843</x:v>
+        <x:v>45907.6663570255</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1309,7 +1300,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.665562419</x:v>
+        <x:v>45912.0386998843</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1341,7 +1332,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6652035532</x:v>
+        <x:v>45907.665562419</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1373,7 +1364,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6658058218</x:v>
+        <x:v>45907.6652035532</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1405,7 +1396,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6650951042</x:v>
+        <x:v>45907.6658058218</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1437,7 +1428,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651674769</x:v>
+        <x:v>45907.6650951042</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1469,7 +1460,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.4389700579</x:v>
+        <x:v>45907.6651674769</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1501,7 +1492,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45927.5877516204</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1533,7 +1524,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6669303241</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1565,7 +1556,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.414719213</x:v>
+        <x:v>45907.6669303241</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1597,7 +1588,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6661318287</x:v>
+        <x:v>45907.414719213</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1629,7 +1620,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.0384657407</x:v>
+        <x:v>45907.6661318287</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1661,7 +1652,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45912.0384657407</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1693,7 +1684,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651002662</x:v>
+        <x:v>45927.4617486921</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4194131134</x:v>
+        <x:v>45907.6651002662</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45909.4194131134</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.0374738426</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45912.0374738426</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2010,7 +2001,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45912.0386217593</x:v>
@@ -2109,7 +2100,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2141,7 +2132,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2173,7 +2164,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2205,7 +2196,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45916.6151800579</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2237,7 +2228,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45916.6151800579</x:v>
+        <x:v>45912.0387656597</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2269,7 +2260,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45912.0387656597</x:v>
+        <x:v>45912.0371449884</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2301,7 +2292,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45912.0371449884</x:v>
+        <x:v>45907.6658238773</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2333,7 +2324,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6658238773</x:v>
+        <x:v>45907.6654652431</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2365,7 +2356,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6654652431</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2397,7 +2388,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2414,38 +2405,6 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:20">
-      <x:c r="A48" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="E48" s="3">
-        <x:v>45907.6655123843</x:v>
-      </x:c>
-      <x:c r="F48" s="2" t="s"/>
-      <x:c r="G48" s="2" t="s"/>
-      <x:c r="H48" s="2" t="s"/>
-      <x:c r="I48" s="2" t="s"/>
-      <x:c r="J48" s="2" t="s"/>
-      <x:c r="K48" s="2" t="s"/>
-      <x:c r="L48" s="2" t="s"/>
-      <x:c r="M48" s="2" t="s"/>
-      <x:c r="N48" s="2" t="s"/>
-      <x:c r="O48" s="2" t="s"/>
-      <x:c r="P48" s="2" t="s"/>
-      <x:c r="Q48" s="2" t="s"/>
-      <x:c r="R48" s="2" t="s"/>
-      <x:c r="S48" s="2" t="s"/>
-      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35644.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35644.xlsx
@@ -1684,7 +1684,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4617486921</x:v>
+        <x:v>45928.2604062153</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>

--- a/downloaded_files/MDPS217_Tutorial-35644.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35644.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -238,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t>ٍSalma Hany Mohamed Azez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
   </x:si>
   <x:si>
     <x:t>1240341</x:t>
@@ -557,7 +548,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -857,7 +848,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1684,7 +1675,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45928.2604062153</x:v>
+        <x:v>45907.6651002662</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1716,7 +1707,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651002662</x:v>
+        <x:v>45909.4194131134</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1748,7 +1739,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4194131134</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45912.0374738426</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.0374738426</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1940,7 +1931,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6650885764</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1969,10 +1960,10 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6650885764</x:v>
+        <x:v>45912.0386217593</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1995,16 +1986,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.0386217593</x:v>
+        <x:v>45914.4250353819</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2036,7 +2027,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.4250353819</x:v>
+        <x:v>45912.0385012731</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2068,7 +2059,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.0385012731</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2100,7 +2091,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2132,7 +2123,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2164,7 +2155,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45916.6151800579</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2196,7 +2187,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45916.6151800579</x:v>
+        <x:v>45912.0387656597</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2228,7 +2219,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.0387656597</x:v>
+        <x:v>45912.0371449884</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2260,7 +2251,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45912.0371449884</x:v>
+        <x:v>45907.6658238773</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2292,7 +2283,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6658238773</x:v>
+        <x:v>45907.6654652431</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2324,7 +2315,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6654652431</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2356,7 +2347,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2373,38 +2364,6 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E47" s="3">
-        <x:v>45907.6655123843</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35644.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35644.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -433,6 +433,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Ayman Bakry Awaad Youssef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عادل محمد حمزاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hamzawi</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -548,7 +557,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -848,7 +857,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2364,6 +2373,38 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45929.5388278125</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Tutorial-35644.xlsx
+++ b/downloaded_files/MDPS217_Tutorial-35644.xlsx
@@ -2411,11 +2411,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14501]14501-50-الجيزة الرئيسي Time : Wednesday(9:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14402] صالة ميكانيكا ب-120-الجيزة الرئيسي Time : Wednesday(9:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14501]14501-50-الجيزة الرئيسي Time : Wednesday(9:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14402] صالة ميكانيكا ب-120-الجيزة الرئيسي Time : Wednesday(9:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14501]14501-50-الجيزة الرئيسي Time : Wednesday(9:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Machine Drawing (MDPS217) Location : [14402] صالة ميكانيكا ب-120-الجيزة الرئيسي Time : Wednesday(9:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">
